--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_22_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68049.85623720058</v>
+        <v>13384261.16409665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68049.85623720058</v>
+        <v>13384261.16409665</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>79529.85328737347</v>
+        <v>9329781.346259421</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79529.85328737347</v>
+        <v>9329781.346259421</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1609428920.674241</v>
+        <v>57114363.22818292</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14817.07911433182</v>
+        <v>1371941.957970653</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28414.2361799098</v>
+        <v>2557166.554558355</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42011.39324548773</v>
+        <v>3742391.151146058</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55911.9986885523</v>
+        <v>4808417.9913577</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69040.94232871219</v>
+        <v>5984968.109834127</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82163.66677458151</v>
+        <v>7161291.616418592</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95288.52906848821</v>
+        <v>8337841.734895014</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>108413.3913623949</v>
+        <v>9514391.853371432</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>123598.3256124287</v>
+        <v>10124163.99661074</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>137211.3418043912</v>
+        <v>11375672.56864177</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>150320.8557741315</v>
+        <v>12550397.05178392</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163430.3697438719</v>
+        <v>13725121.53492606</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>176539.8837136122</v>
+        <v>14899846.01806821</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>191833.2598965033</v>
+        <v>15700407.95012354</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>212082.9995677081</v>
+        <v>16101826.23973477</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>271</v>
@@ -27055,10 +27055,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>133</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
